--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H2">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>759.2319223859849</v>
+        <v>1707.668562240749</v>
       </c>
       <c r="R2">
-        <v>759.2319223859849</v>
+        <v>15369.01706016674</v>
       </c>
       <c r="S2">
-        <v>0.04276615039124782</v>
+        <v>0.07770805083333913</v>
       </c>
       <c r="T2">
-        <v>0.04276615039124782</v>
+        <v>0.07770805083333915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H3">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>903.6526476886852</v>
+        <v>1877.520944028531</v>
       </c>
       <c r="R3">
-        <v>903.6526476886852</v>
+        <v>16897.68849625678</v>
       </c>
       <c r="S3">
-        <v>0.0509011066224064</v>
+        <v>0.08543724243994077</v>
       </c>
       <c r="T3">
-        <v>0.0509011066224064</v>
+        <v>0.08543724243994077</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H4">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>330.0903661140675</v>
+        <v>757.3532780235932</v>
       </c>
       <c r="R4">
-        <v>330.0903661140675</v>
+        <v>6816.17950221234</v>
       </c>
       <c r="S4">
-        <v>0.01859338869152487</v>
+        <v>0.0344636238722045</v>
       </c>
       <c r="T4">
-        <v>0.01859338869152487</v>
+        <v>0.03446362387220451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H5">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I5">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J5">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>429.7085827529332</v>
+        <v>1040.676466614902</v>
       </c>
       <c r="R5">
-        <v>429.7085827529332</v>
+        <v>9366.088199534117</v>
       </c>
       <c r="S5">
-        <v>0.02420470126792068</v>
+        <v>0.04735634393986669</v>
       </c>
       <c r="T5">
-        <v>0.02420470126792068</v>
+        <v>0.04735634393986669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H6">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>2580.35991358982</v>
+        <v>2797.408315531709</v>
       </c>
       <c r="R6">
-        <v>2580.35991358982</v>
+        <v>25176.67483978538</v>
       </c>
       <c r="S6">
-        <v>0.1453469708983439</v>
+        <v>0.1272970366683468</v>
       </c>
       <c r="T6">
-        <v>0.1453469708983439</v>
+        <v>0.1272970366683468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H7">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>3071.194715545368</v>
+        <v>3075.651105574371</v>
       </c>
       <c r="R7">
-        <v>3071.194715545368</v>
+        <v>27680.85995016934</v>
       </c>
       <c r="S7">
-        <v>0.172994800683638</v>
+        <v>0.1399585714361204</v>
       </c>
       <c r="T7">
-        <v>0.172994800683638</v>
+        <v>0.1399585714361204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H8">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J8">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>1121.860031788687</v>
+        <v>1240.654307624193</v>
       </c>
       <c r="R8">
-        <v>1121.860031788687</v>
+        <v>11165.88876861774</v>
       </c>
       <c r="S8">
-        <v>0.06319233085804549</v>
+        <v>0.05645640502800927</v>
       </c>
       <c r="T8">
-        <v>0.06319233085804549</v>
+        <v>0.05645640502800928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H9">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J9">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>1460.427003617822</v>
+        <v>1704.778705808522</v>
       </c>
       <c r="R9">
-        <v>1460.427003617822</v>
+        <v>15343.0083522767</v>
       </c>
       <c r="S9">
-        <v>0.08226319129980794</v>
+        <v>0.07757654691302227</v>
       </c>
       <c r="T9">
-        <v>0.08226319129980794</v>
+        <v>0.07757654691302227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H10">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>12.70492897068354</v>
+        <v>18.26974835731022</v>
       </c>
       <c r="R10">
-        <v>12.70492897068354</v>
+        <v>164.427735215792</v>
       </c>
       <c r="S10">
-        <v>0.0007156454925694568</v>
+        <v>0.0008313712423207477</v>
       </c>
       <c r="T10">
-        <v>0.0007156454925694568</v>
+        <v>0.0008313712423207479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H11">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I11">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J11">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>15.12165435164373</v>
+        <v>20.08693955106311</v>
       </c>
       <c r="R11">
-        <v>15.12165435164373</v>
+        <v>180.782455959568</v>
       </c>
       <c r="S11">
-        <v>0.0008517752284895241</v>
+        <v>0.0009140631585276927</v>
       </c>
       <c r="T11">
-        <v>0.0008517752284895241</v>
+        <v>0.0009140631585276927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H12">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I12">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J12">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>5.52370696190786</v>
+        <v>8.102657689568888</v>
       </c>
       <c r="R12">
-        <v>5.52370696190786</v>
+        <v>72.92391920612</v>
       </c>
       <c r="S12">
-        <v>0.0003111403455057026</v>
+        <v>0.000368714251435284</v>
       </c>
       <c r="T12">
-        <v>0.0003111403455057026</v>
+        <v>0.000368714251435284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H13">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I13">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J13">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>7.190710586578315</v>
+        <v>11.13383333676933</v>
       </c>
       <c r="R13">
-        <v>7.190710586578315</v>
+        <v>100.204500030924</v>
       </c>
       <c r="S13">
-        <v>0.0004050396213572365</v>
+        <v>0.0005066489516960622</v>
       </c>
       <c r="T13">
-        <v>0.0004050396213572365</v>
+        <v>0.0005066489516960622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H14">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I14">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J14">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>2211.254269996073</v>
+        <v>2447.717575686836</v>
       </c>
       <c r="R14">
-        <v>2211.254269996073</v>
+        <v>22029.45818118152</v>
       </c>
       <c r="S14">
-        <v>0.1245559227366947</v>
+        <v>0.1113842381378422</v>
       </c>
       <c r="T14">
-        <v>0.1245559227366947</v>
+        <v>0.1113842381378423</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H15">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I15">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J15">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>2631.87797677848</v>
+        <v>2691.178554806045</v>
       </c>
       <c r="R15">
-        <v>2631.87797677848</v>
+        <v>24220.6069932544</v>
       </c>
       <c r="S15">
-        <v>0.1482488894995377</v>
+        <v>0.1224630145231762</v>
       </c>
       <c r="T15">
-        <v>0.1482488894995377</v>
+        <v>0.1224630145231762</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H16">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I16">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J16">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>961.3844070998093</v>
+        <v>1085.56599952271</v>
       </c>
       <c r="R16">
-        <v>961.3844070998093</v>
+        <v>9770.09399570439</v>
       </c>
       <c r="S16">
-        <v>0.05415303140655987</v>
+        <v>0.04939905772064133</v>
       </c>
       <c r="T16">
-        <v>0.05415303140655987</v>
+        <v>0.04939905772064134</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H17">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I17">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J17">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>1251.521321021742</v>
+        <v>1491.672408956517</v>
       </c>
       <c r="R17">
-        <v>1251.521321021742</v>
+        <v>13425.05168060865</v>
       </c>
       <c r="S17">
-        <v>0.07049591495635056</v>
+        <v>0.06787907088351063</v>
       </c>
       <c r="T17">
-        <v>0.07049591495635056</v>
+        <v>0.06787907088351063</v>
       </c>
     </row>
   </sheetData>
